--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd28-Cd86.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd28-Cd86.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,10 +82,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd28</t>
   </si>
   <si>
     <t>Cd86</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.23022955461977</v>
+        <v>3.473964666666667</v>
       </c>
       <c r="H2">
-        <v>3.23022955461977</v>
+        <v>10.421894</v>
       </c>
       <c r="I2">
-        <v>0.5917442108123033</v>
+        <v>0.5449432418219904</v>
       </c>
       <c r="J2">
-        <v>0.5917442108123033</v>
+        <v>0.5462679851731443</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>64.91512488180049</v>
+        <v>0.295844</v>
       </c>
       <c r="N2">
-        <v>64.91512488180049</v>
+        <v>0.887532</v>
       </c>
       <c r="O2">
-        <v>0.3612558150680056</v>
+        <v>0.001426310468785249</v>
       </c>
       <c r="P2">
-        <v>0.3612558150680056</v>
+        <v>0.001426654776365869</v>
       </c>
       <c r="Q2">
-        <v>209.6907549350252</v>
+        <v>1.027751602845333</v>
       </c>
       <c r="R2">
-        <v>209.6907549350252</v>
+        <v>9.249764425607999</v>
       </c>
       <c r="S2">
-        <v>0.2137710371887724</v>
+        <v>0.0007772582507044765</v>
       </c>
       <c r="T2">
-        <v>0.2137710371887724</v>
+        <v>0.0007793358302230263</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,185 +584,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.23022955461977</v>
+        <v>3.473964666666667</v>
       </c>
       <c r="H3">
-        <v>3.23022955461977</v>
+        <v>10.421894</v>
       </c>
       <c r="I3">
-        <v>0.5917442108123033</v>
+        <v>0.5449432418219904</v>
       </c>
       <c r="J3">
-        <v>0.5917442108123033</v>
+        <v>0.5462679851731443</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>114.777830011065</v>
+        <v>91.51221133333333</v>
       </c>
       <c r="N3">
-        <v>114.777830011065</v>
+        <v>274.536634</v>
       </c>
       <c r="O3">
-        <v>0.6387441849319945</v>
+        <v>0.4411947683455518</v>
       </c>
       <c r="P3">
-        <v>0.6387441849319945</v>
+        <v>0.4413012715975408</v>
       </c>
       <c r="Q3">
-        <v>370.7587387168662</v>
+        <v>317.9101887405329</v>
       </c>
       <c r="R3">
-        <v>370.7587387168662</v>
+        <v>2861.191698664796</v>
       </c>
       <c r="S3">
-        <v>0.377973173623531</v>
+        <v>0.2404261073371271</v>
       </c>
       <c r="T3">
-        <v>0.377973173623531</v>
+        <v>0.2410687564899352</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.22859791778684</v>
+        <v>3.473964666666667</v>
       </c>
       <c r="H4">
-        <v>2.22859791778684</v>
+        <v>10.421894</v>
       </c>
       <c r="I4">
-        <v>0.4082557891876967</v>
+        <v>0.5449432418219904</v>
       </c>
       <c r="J4">
-        <v>0.4082557891876967</v>
+        <v>0.5462679851731443</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.91512488180049</v>
+        <v>115.460846</v>
       </c>
       <c r="N4">
-        <v>64.91512488180049</v>
+        <v>346.382538</v>
       </c>
       <c r="O4">
-        <v>0.3612558150680056</v>
+        <v>0.5566549038838086</v>
       </c>
       <c r="P4">
-        <v>0.3612558150680056</v>
+        <v>0.5567892789076139</v>
       </c>
       <c r="Q4">
-        <v>144.6697121444533</v>
+        <v>401.1068993874414</v>
       </c>
       <c r="R4">
-        <v>144.6697121444533</v>
+        <v>3609.962094486972</v>
       </c>
       <c r="S4">
-        <v>0.1474847778792333</v>
+        <v>0.3033453278985511</v>
       </c>
       <c r="T4">
-        <v>0.1474847778792333</v>
+        <v>0.3041561575548701</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.473964666666667</v>
+      </c>
+      <c r="H5">
+        <v>10.421894</v>
+      </c>
+      <c r="I5">
+        <v>0.5449432418219904</v>
+      </c>
+      <c r="J5">
+        <v>0.5462679851731443</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.150175</v>
+      </c>
+      <c r="N5">
+        <v>0.30035</v>
+      </c>
+      <c r="O5">
+        <v>0.0007240173018544394</v>
+      </c>
+      <c r="P5">
+        <v>0.0004827947184794339</v>
+      </c>
+      <c r="Q5">
+        <v>0.5217026438166666</v>
+      </c>
+      <c r="R5">
+        <v>3.1302158629</v>
+      </c>
+      <c r="S5">
+        <v>0.0003945483356077688</v>
+      </c>
+      <c r="T5">
+        <v>0.0002637352981159958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.854567333333333</v>
+      </c>
+      <c r="H6">
+        <v>8.563701999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.4477815193550676</v>
+      </c>
+      <c r="J6">
+        <v>0.4488700649961731</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.295844</v>
+      </c>
+      <c r="N6">
+        <v>0.887532</v>
+      </c>
+      <c r="O6">
+        <v>0.001426310468785249</v>
+      </c>
+      <c r="P6">
+        <v>0.001426654776365869</v>
+      </c>
+      <c r="Q6">
+        <v>0.8445066181626666</v>
+      </c>
+      <c r="R6">
+        <v>7.600559563464</v>
+      </c>
+      <c r="S6">
+        <v>0.0006386754687846975</v>
+      </c>
+      <c r="T6">
+        <v>0.0006403826221944486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.854567333333333</v>
+      </c>
+      <c r="H7">
+        <v>8.563701999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.4477815193550676</v>
+      </c>
+      <c r="J7">
+        <v>0.4488700649961731</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>91.51221133333333</v>
+      </c>
+      <c r="N7">
+        <v>274.536634</v>
+      </c>
+      <c r="O7">
+        <v>0.4411947683455518</v>
+      </c>
+      <c r="P7">
+        <v>0.4413012715975408</v>
+      </c>
+      <c r="Q7">
+        <v>261.2277690732298</v>
+      </c>
+      <c r="R7">
+        <v>2351.049921659068</v>
+      </c>
+      <c r="S7">
+        <v>0.1975588637012783</v>
+      </c>
+      <c r="T7">
+        <v>0.198086930464882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.854567333333333</v>
+      </c>
+      <c r="H8">
+        <v>8.563701999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.4477815193550676</v>
+      </c>
+      <c r="J8">
+        <v>0.4488700649961731</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>115.460846</v>
+      </c>
+      <c r="N8">
+        <v>346.382538</v>
+      </c>
+      <c r="O8">
+        <v>0.5566549038838086</v>
+      </c>
+      <c r="P8">
+        <v>0.5567892789076139</v>
+      </c>
+      <c r="Q8">
+        <v>329.5907592706307</v>
+      </c>
+      <c r="R8">
+        <v>2966.316833435676</v>
+      </c>
+      <c r="S8">
+        <v>0.2492597786175409</v>
+      </c>
+      <c r="T8">
+        <v>0.249926039812433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.854567333333333</v>
+      </c>
+      <c r="H9">
+        <v>8.563701999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.4477815193550676</v>
+      </c>
+      <c r="J9">
+        <v>0.4488700649961731</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.150175</v>
+      </c>
+      <c r="N9">
+        <v>0.30035</v>
+      </c>
+      <c r="O9">
+        <v>0.0007240173018544394</v>
+      </c>
+      <c r="P9">
+        <v>0.0004827947184794339</v>
+      </c>
+      <c r="Q9">
+        <v>0.4286846492833333</v>
+      </c>
+      <c r="R9">
+        <v>2.5721078957</v>
+      </c>
+      <c r="S9">
+        <v>0.0003242015674637375</v>
+      </c>
+      <c r="T9">
+        <v>0.0002167120966636726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.046379</v>
+      </c>
+      <c r="H10">
+        <v>0.09275799999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.007275238822941998</v>
+      </c>
+      <c r="J10">
+        <v>0.004861949830682458</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.295844</v>
+      </c>
+      <c r="N10">
+        <v>0.887532</v>
+      </c>
+      <c r="O10">
+        <v>0.001426310468785249</v>
+      </c>
+      <c r="P10">
+        <v>0.001426654776365869</v>
+      </c>
+      <c r="Q10">
+        <v>0.013720948876</v>
+      </c>
+      <c r="R10">
+        <v>0.08232569325599999</v>
+      </c>
+      <c r="S10">
+        <v>1.037674929607504E-05</v>
+      </c>
+      <c r="T10">
+        <v>6.936323948394358E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.046379</v>
+      </c>
+      <c r="H11">
+        <v>0.09275799999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.007275238822941998</v>
+      </c>
+      <c r="J11">
+        <v>0.004861949830682458</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>91.51221133333333</v>
+      </c>
+      <c r="N11">
+        <v>274.536634</v>
+      </c>
+      <c r="O11">
+        <v>0.4411947683455518</v>
+      </c>
+      <c r="P11">
+        <v>0.4413012715975408</v>
+      </c>
+      <c r="Q11">
+        <v>4.244244849428666</v>
+      </c>
+      <c r="R11">
+        <v>25.465469096572</v>
+      </c>
+      <c r="S11">
+        <v>0.00320979730714646</v>
+      </c>
+      <c r="T11">
+        <v>0.002145584642723617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.22859791778684</v>
-      </c>
-      <c r="H5">
-        <v>2.22859791778684</v>
-      </c>
-      <c r="I5">
-        <v>0.4082557891876967</v>
-      </c>
-      <c r="J5">
-        <v>0.4082557891876967</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>114.777830011065</v>
-      </c>
-      <c r="N5">
-        <v>114.777830011065</v>
-      </c>
-      <c r="O5">
-        <v>0.6387441849319945</v>
-      </c>
-      <c r="P5">
-        <v>0.6387441849319945</v>
-      </c>
-      <c r="Q5">
-        <v>255.7936329707514</v>
-      </c>
-      <c r="R5">
-        <v>255.7936329707514</v>
-      </c>
-      <c r="S5">
-        <v>0.2607710113084635</v>
-      </c>
-      <c r="T5">
-        <v>0.2607710113084635</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.046379</v>
+      </c>
+      <c r="H12">
+        <v>0.09275799999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.007275238822941998</v>
+      </c>
+      <c r="J12">
+        <v>0.004861949830682458</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>115.460846</v>
+      </c>
+      <c r="N12">
+        <v>346.382538</v>
+      </c>
+      <c r="O12">
+        <v>0.5566549038838086</v>
+      </c>
+      <c r="P12">
+        <v>0.5567892789076139</v>
+      </c>
+      <c r="Q12">
+        <v>5.354958576634</v>
+      </c>
+      <c r="R12">
+        <v>32.129751459804</v>
+      </c>
+      <c r="S12">
+        <v>0.004049797367716531</v>
+      </c>
+      <c r="T12">
+        <v>0.002707081540310681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.046379</v>
+      </c>
+      <c r="H13">
+        <v>0.09275799999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.007275238822941998</v>
+      </c>
+      <c r="J13">
+        <v>0.004861949830682458</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.150175</v>
+      </c>
+      <c r="N13">
+        <v>0.30035</v>
+      </c>
+      <c r="O13">
+        <v>0.0007240173018544394</v>
+      </c>
+      <c r="P13">
+        <v>0.0004827947184794339</v>
+      </c>
+      <c r="Q13">
+        <v>0.006964966325</v>
+      </c>
+      <c r="R13">
+        <v>0.0278598653</v>
+      </c>
+      <c r="S13">
+        <v>5.267398782933134E-06</v>
+      </c>
+      <c r="T13">
+        <v>2.347323699765468E-06</v>
       </c>
     </row>
   </sheetData>
